--- a/Tools/Luban/Datas/Items.xlsx
+++ b/Tools/Luban/Datas/Items.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8C845-253D-43ED-BE4A-936BE0CB33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F3ED8D-CAED-435C-A405-D1F8C201F27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>Sword16</t>
+  </si>
+  <si>
+    <t>icon_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,12 +618,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E20"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -624,22 +632,22 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="5" max="6" width="12" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -656,26 +664,29 @@
         <v>13</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -692,26 +703,29 @@
         <v>14</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -720,13 +734,13 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -736,8 +750,9 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="25.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="25.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -754,26 +769,29 @@
         <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
@@ -787,27 +805,30 @@
       <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="14">
         <v>1</v>
@@ -821,18 +842,20 @@
       <c r="E6" s="3">
         <v>100</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -840,8 +863,9 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="14">
         <v>2</v>
@@ -855,18 +879,20 @@
       <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -874,8 +900,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="14">
         <v>3</v>
@@ -889,18 +916,20 @@
       <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -908,8 +937,9 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
       <c r="B9" s="14">
         <v>4</v>
@@ -923,18 +953,20 @@
       <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -942,8 +974,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="14">
         <v>5</v>
@@ -957,18 +990,20 @@
       <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -976,8 +1011,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="14">
         <v>6</v>
@@ -991,18 +1027,20 @@
       <c r="E11" s="3">
         <v>100</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1010,8 +1048,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="14">
         <v>7</v>
@@ -1025,18 +1064,20 @@
       <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1044,8 +1085,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="14">
         <v>8</v>
@@ -1059,18 +1101,20 @@
       <c r="E13" s="3">
         <v>100</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1078,8 +1122,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="14">
         <v>9</v>
@@ -1093,18 +1138,20 @@
       <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1112,8 +1159,9 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="14">
         <v>10</v>
@@ -1127,18 +1175,20 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1146,8 +1196,9 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="14">
         <v>11</v>
@@ -1161,18 +1212,20 @@
       <c r="E16" s="3">
         <v>100</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1180,8 +1233,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="14">
         <v>12</v>
@@ -1195,18 +1249,20 @@
       <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1214,8 +1270,9 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="14">
         <v>13</v>
@@ -1229,18 +1286,20 @@
       <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1248,8 +1307,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="14">
         <v>14</v>
@@ -1263,18 +1323,20 @@
       <c r="E19" s="3">
         <v>100</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1282,8 +1344,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="14">
         <v>15</v>
@@ -1297,18 +1360,20 @@
       <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1316,23 +1381,24 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1340,23 +1406,24 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1364,23 +1431,24 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1388,8 +1456,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1399,12 +1468,12 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1412,8 +1481,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1423,12 +1493,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1436,8 +1506,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1447,12 +1518,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1460,8 +1531,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1471,12 +1543,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -1484,8 +1556,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1495,12 +1568,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -1508,8 +1581,9 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1519,12 +1593,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -1532,8 +1606,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1543,12 +1618,12 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1556,8 +1631,9 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1567,12 +1643,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -1580,8 +1656,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1591,12 +1668,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -1604,8 +1681,9 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1615,12 +1693,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -1628,8 +1706,9 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1639,12 +1718,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -1652,8 +1731,9 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1663,12 +1743,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -1676,8 +1756,9 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1687,12 +1768,12 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -1700,8 +1781,9 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1711,12 +1793,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -1724,8 +1806,9 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1735,12 +1818,12 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -1748,8 +1831,9 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1759,7 +1843,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1772,8 +1856,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1783,7 +1868,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1796,8 +1881,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1807,7 +1893,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1820,8 +1906,9 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1831,7 +1918,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1844,8 +1931,9 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1855,7 +1943,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1868,8 +1956,9 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1879,7 +1968,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1892,8 +1981,9 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1903,7 +1993,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1916,8 +2006,9 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1927,7 +2018,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1940,8 +2031,9 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1951,7 +2043,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1964,8 +2056,9 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1975,7 +2068,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1988,8 +2081,9 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1999,7 +2093,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -2012,8 +2106,9 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2023,7 +2118,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="3"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2036,8 +2131,9 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2047,7 +2143,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2060,8 +2156,9 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2071,7 +2168,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="3"/>
+      <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -2084,8 +2181,9 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2095,7 +2193,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="3"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2108,8 +2206,9 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2119,7 +2218,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="3"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2132,8 +2231,9 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2143,7 +2243,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="3"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -2156,8 +2256,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2167,7 +2268,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2180,8 +2281,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2191,7 +2293,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="3"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -2204,8 +2306,9 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2215,7 +2318,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="4"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -2228,8 +2331,9 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2239,7 +2343,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="4"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -2252,8 +2356,9 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2263,7 +2368,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -2276,8 +2381,9 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2287,7 +2393,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -2300,8 +2406,9 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2311,7 +2418,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="4"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2324,8 +2431,9 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2335,7 +2443,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="4"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -2348,8 +2456,9 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2359,7 +2468,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="4"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2372,8 +2481,9 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2383,7 +2493,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="3"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -2396,8 +2506,9 @@
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2407,7 +2518,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -2420,8 +2531,9 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2431,7 +2543,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="4"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2444,8 +2556,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2455,7 +2568,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2468,8 +2581,9 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2479,7 +2593,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -2492,8 +2606,9 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2503,7 +2618,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="3"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -2516,8 +2631,9 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2527,7 +2643,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="4"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -2540,8 +2656,9 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2551,7 +2668,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -2564,8 +2681,9 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2575,7 +2693,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="4"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -2588,8 +2706,9 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2599,7 +2718,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="4"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2612,8 +2731,9 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2623,7 +2743,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2636,8 +2756,9 @@
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2647,7 +2768,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -2660,8 +2781,9 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2671,7 +2793,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2684,8 +2806,9 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2695,7 +2818,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="4"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -2708,8 +2831,9 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2719,7 +2843,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -2732,8 +2856,9 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2743,7 +2868,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -2756,8 +2881,9 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2767,7 +2893,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -2780,8 +2906,9 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2791,7 +2918,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -2804,8 +2931,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2815,7 +2943,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="4"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -2828,8 +2956,9 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2839,7 +2968,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="4"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -2852,8 +2981,9 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2863,7 +2993,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="4"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -2876,8 +3006,9 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2887,7 +3018,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="3"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -2900,8 +3031,9 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2911,7 +3043,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -2924,8 +3056,9 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2935,7 +3068,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="4"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -2948,8 +3081,9 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2959,7 +3093,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="3"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -2972,8 +3106,9 @@
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2983,7 +3118,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -2996,8 +3131,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3007,7 +3143,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -3020,8 +3156,9 @@
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3031,7 +3168,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -3044,8 +3181,9 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3055,7 +3193,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -3068,8 +3206,9 @@
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3079,7 +3218,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -3092,8 +3231,9 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3103,7 +3243,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -3116,8 +3256,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3127,7 +3268,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -3140,8 +3281,9 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3151,7 +3293,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -3164,8 +3306,9 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3175,7 +3318,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -3188,8 +3331,9 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3199,7 +3343,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -3212,8 +3356,9 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3223,7 +3368,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -3236,6 +3381,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
